--- a/data/5208.xlsx
+++ b/data/5208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43403,6 +43403,41 @@
         <v>12000</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5208</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>EITA</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5208.xlsx
+++ b/data/5208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43438,6 +43438,43 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5208</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>EITA</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="I1219" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5208.xlsx
+++ b/data/5208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43475,6 +43475,41 @@
         </is>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5208</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>EITA</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>9100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5208.xlsx
+++ b/data/5208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43510,6 +43510,41 @@
         <v>9100</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5208</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>EITA</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5208.xlsx
+++ b/data/5208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43545,6 +43545,41 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5208</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>EITA</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>23700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5208.xlsx
+++ b/data/5208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43580,6 +43580,41 @@
         <v>23700</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5208</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>EITA</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>4400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5208.xlsx
+++ b/data/5208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43615,6 +43615,41 @@
         <v>4400</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5208</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>EITA</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5208.xlsx
+++ b/data/5208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43650,6 +43650,41 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5208</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>EITA</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>27000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5208.xlsx
+++ b/data/5208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43685,6 +43685,43 @@
         <v>27000</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5208</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>EITA</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="I1226" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5208.xlsx
+++ b/data/5208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43722,6 +43722,43 @@
         </is>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5208</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>EITA</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="I1227" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5208.xlsx
+++ b/data/5208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43759,6 +43759,41 @@
         </is>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5208</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>EITA</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>11000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5208.xlsx
+++ b/data/5208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43794,6 +43794,41 @@
         <v>11000</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5208</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>EITA</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>152000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5208.xlsx
+++ b/data/5208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43829,6 +43829,76 @@
         <v>152000</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5208</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>EITA</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5208</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>EITA</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>15300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5208.xlsx
+++ b/data/5208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43899,6 +43899,76 @@
         <v>15300</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5208</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>EITA</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5208</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>EITA</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5208.xlsx
+++ b/data/5208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43969,6 +43969,43 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5208</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>EITA</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I1234" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5208.xlsx
+++ b/data/5208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44006,6 +44006,41 @@
         </is>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5208</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>EITA</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5208.xlsx
+++ b/data/5208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44041,6 +44041,41 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5208</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>EITA</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>4000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5208.xlsx
+++ b/data/5208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44076,6 +44076,41 @@
         <v>4000</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5208</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>EITA</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>79200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5208.xlsx
+++ b/data/5208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44111,6 +44111,78 @@
         <v>79200</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5208</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>EITA</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>64700</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5208</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>EITA</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I1239" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5208.xlsx
+++ b/data/5208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44183,6 +44183,41 @@
         </is>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>5208</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>EITA</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>69500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5208.xlsx
+++ b/data/5208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44218,6 +44218,41 @@
         <v>69500</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>5208</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>EITA</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>153200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5208.xlsx
+++ b/data/5208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1892"/>
+  <dimension ref="A1:I1893"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67038,6 +67038,41 @@
         <v>153200</v>
       </c>
     </row>
+    <row r="1893">
+      <c r="A1893" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1893" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1893" t="inlineStr">
+        <is>
+          <t>5208</t>
+        </is>
+      </c>
+      <c r="D1893" t="inlineStr">
+        <is>
+          <t>EITA</t>
+        </is>
+      </c>
+      <c r="E1893" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F1893" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G1893" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H1893" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="I1893" t="n">
+        <v>358900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5208.xlsx
+++ b/data/5208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1893"/>
+  <dimension ref="A1:I1894"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67073,6 +67073,41 @@
         <v>358900</v>
       </c>
     </row>
+    <row r="1894">
+      <c r="A1894" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1894" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1894" t="inlineStr">
+        <is>
+          <t>5208</t>
+        </is>
+      </c>
+      <c r="D1894" t="inlineStr">
+        <is>
+          <t>EITA</t>
+        </is>
+      </c>
+      <c r="E1894" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="F1894" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G1894" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H1894" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="I1894" t="n">
+        <v>34500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5208.xlsx
+++ b/data/5208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1894"/>
+  <dimension ref="A1:I1895"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67108,6 +67108,41 @@
         <v>34500</v>
       </c>
     </row>
+    <row r="1895">
+      <c r="A1895" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1895" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1895" t="inlineStr">
+        <is>
+          <t>5208</t>
+        </is>
+      </c>
+      <c r="D1895" t="inlineStr">
+        <is>
+          <t>EITA</t>
+        </is>
+      </c>
+      <c r="E1895" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="F1895" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="G1895" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="H1895" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="I1895" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5208.xlsx
+++ b/data/5208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1895"/>
+  <dimension ref="A1:I1896"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67143,6 +67143,41 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1896">
+      <c r="A1896" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1896" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1896" t="inlineStr">
+        <is>
+          <t>5208</t>
+        </is>
+      </c>
+      <c r="D1896" t="inlineStr">
+        <is>
+          <t>EITA</t>
+        </is>
+      </c>
+      <c r="E1896" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="F1896" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="G1896" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H1896" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="I1896" t="n">
+        <v>6700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5208.xlsx
+++ b/data/5208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1896"/>
+  <dimension ref="A1:I1897"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67178,6 +67178,41 @@
         <v>6700</v>
       </c>
     </row>
+    <row r="1897">
+      <c r="A1897" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1897" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1897" t="inlineStr">
+        <is>
+          <t>5208</t>
+        </is>
+      </c>
+      <c r="D1897" t="inlineStr">
+        <is>
+          <t>EITA</t>
+        </is>
+      </c>
+      <c r="E1897" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F1897" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="G1897" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H1897" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I1897" t="n">
+        <v>20500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5208.xlsx
+++ b/data/5208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1897"/>
+  <dimension ref="A1:I1898"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67213,6 +67213,43 @@
         <v>20500</v>
       </c>
     </row>
+    <row r="1898">
+      <c r="A1898" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1898" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1898" t="inlineStr">
+        <is>
+          <t>5208</t>
+        </is>
+      </c>
+      <c r="D1898" t="inlineStr">
+        <is>
+          <t>EITA</t>
+        </is>
+      </c>
+      <c r="E1898" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F1898" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G1898" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H1898" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I1898" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5208.xlsx
+++ b/data/5208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1898"/>
+  <dimension ref="A1:I1899"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67250,6 +67250,41 @@
         </is>
       </c>
     </row>
+    <row r="1899">
+      <c r="A1899" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1899" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1899" t="inlineStr">
+        <is>
+          <t>5208</t>
+        </is>
+      </c>
+      <c r="D1899" t="inlineStr">
+        <is>
+          <t>EITA</t>
+        </is>
+      </c>
+      <c r="E1899" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F1899" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G1899" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H1899" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I1899" t="n">
+        <v>113200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5208.xlsx
+++ b/data/5208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1899"/>
+  <dimension ref="A1:I1900"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67285,6 +67285,41 @@
         <v>113200</v>
       </c>
     </row>
+    <row r="1900">
+      <c r="A1900" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1900" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1900" t="inlineStr">
+        <is>
+          <t>5208</t>
+        </is>
+      </c>
+      <c r="D1900" t="inlineStr">
+        <is>
+          <t>EITA</t>
+        </is>
+      </c>
+      <c r="E1900" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F1900" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G1900" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H1900" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I1900" t="n">
+        <v>194000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5208.xlsx
+++ b/data/5208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1900"/>
+  <dimension ref="A1:I1901"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67320,6 +67320,41 @@
         <v>194000</v>
       </c>
     </row>
+    <row r="1901">
+      <c r="A1901" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1901" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1901" t="inlineStr">
+        <is>
+          <t>5208</t>
+        </is>
+      </c>
+      <c r="D1901" t="inlineStr">
+        <is>
+          <t>EITA</t>
+        </is>
+      </c>
+      <c r="E1901" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F1901" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="G1901" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H1901" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="I1901" t="n">
+        <v>157500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5208.xlsx
+++ b/data/5208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1901"/>
+  <dimension ref="A1:I1902"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67355,6 +67355,41 @@
         <v>157500</v>
       </c>
     </row>
+    <row r="1902">
+      <c r="A1902" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1902" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1902" t="inlineStr">
+        <is>
+          <t>5208</t>
+        </is>
+      </c>
+      <c r="D1902" t="inlineStr">
+        <is>
+          <t>EITA</t>
+        </is>
+      </c>
+      <c r="E1902" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F1902" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G1902" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H1902" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I1902" t="n">
+        <v>312600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5208.xlsx
+++ b/data/5208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1902"/>
+  <dimension ref="A1:I1903"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67390,6 +67390,41 @@
         <v>312600</v>
       </c>
     </row>
+    <row r="1903">
+      <c r="A1903" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1903" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1903" t="inlineStr">
+        <is>
+          <t>5208</t>
+        </is>
+      </c>
+      <c r="D1903" t="inlineStr">
+        <is>
+          <t>EITA</t>
+        </is>
+      </c>
+      <c r="E1903" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F1903" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="G1903" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H1903" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I1903" t="n">
+        <v>28100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5208.xlsx
+++ b/data/5208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1903"/>
+  <dimension ref="A1:I1904"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67425,6 +67425,41 @@
         <v>28100</v>
       </c>
     </row>
+    <row r="1904">
+      <c r="A1904" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1904" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1904" t="inlineStr">
+        <is>
+          <t>5208</t>
+        </is>
+      </c>
+      <c r="D1904" t="inlineStr">
+        <is>
+          <t>EITA</t>
+        </is>
+      </c>
+      <c r="E1904" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F1904" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="G1904" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H1904" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="I1904" t="n">
+        <v>87000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5208.xlsx
+++ b/data/5208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1904"/>
+  <dimension ref="A1:I1905"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67460,6 +67460,41 @@
         <v>87000</v>
       </c>
     </row>
+    <row r="1905">
+      <c r="A1905" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1905" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1905" t="inlineStr">
+        <is>
+          <t>5208</t>
+        </is>
+      </c>
+      <c r="D1905" t="inlineStr">
+        <is>
+          <t>EITA</t>
+        </is>
+      </c>
+      <c r="E1905" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="F1905" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G1905" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H1905" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="I1905" t="n">
+        <v>144000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5208.xlsx
+++ b/data/5208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1905"/>
+  <dimension ref="A1:I1906"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67495,6 +67495,41 @@
         <v>144000</v>
       </c>
     </row>
+    <row r="1906">
+      <c r="A1906" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1906" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1906" t="inlineStr">
+        <is>
+          <t>5208</t>
+        </is>
+      </c>
+      <c r="D1906" t="inlineStr">
+        <is>
+          <t>EITA</t>
+        </is>
+      </c>
+      <c r="E1906" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F1906" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="G1906" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H1906" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I1906" t="n">
+        <v>71900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5208.xlsx
+++ b/data/5208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1906"/>
+  <dimension ref="A1:I1907"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67530,6 +67530,41 @@
         <v>71900</v>
       </c>
     </row>
+    <row r="1907">
+      <c r="A1907" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1907" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1907" t="inlineStr">
+        <is>
+          <t>5208</t>
+        </is>
+      </c>
+      <c r="D1907" t="inlineStr">
+        <is>
+          <t>EITA</t>
+        </is>
+      </c>
+      <c r="E1907" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="F1907" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G1907" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H1907" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="I1907" t="n">
+        <v>142000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5208.xlsx
+++ b/data/5208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1907"/>
+  <dimension ref="A1:I1908"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67565,6 +67565,41 @@
         <v>142000</v>
       </c>
     </row>
+    <row r="1908">
+      <c r="A1908" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B1908" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C1908" t="inlineStr">
+        <is>
+          <t>5208</t>
+        </is>
+      </c>
+      <c r="D1908" t="inlineStr">
+        <is>
+          <t>EITA</t>
+        </is>
+      </c>
+      <c r="E1908" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="F1908" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G1908" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="H1908" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="I1908" t="n">
+        <v>108800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5208.xlsx
+++ b/data/5208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1908"/>
+  <dimension ref="A1:I1909"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67600,6 +67600,41 @@
         <v>108800</v>
       </c>
     </row>
+    <row r="1909">
+      <c r="A1909" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B1909" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C1909" t="inlineStr">
+        <is>
+          <t>5208</t>
+        </is>
+      </c>
+      <c r="D1909" t="inlineStr">
+        <is>
+          <t>EITA</t>
+        </is>
+      </c>
+      <c r="E1909" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F1909" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="G1909" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="H1909" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="I1909" t="n">
+        <v>81600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5208.xlsx
+++ b/data/5208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1909"/>
+  <dimension ref="A1:I1910"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67635,6 +67635,41 @@
         <v>81600</v>
       </c>
     </row>
+    <row r="1910">
+      <c r="A1910" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B1910" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C1910" t="inlineStr">
+        <is>
+          <t>5208</t>
+        </is>
+      </c>
+      <c r="D1910" t="inlineStr">
+        <is>
+          <t>EITA</t>
+        </is>
+      </c>
+      <c r="E1910" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="F1910" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G1910" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H1910" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I1910" t="n">
+        <v>72500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5208.xlsx
+++ b/data/5208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1910"/>
+  <dimension ref="A1:I1911"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67670,6 +67670,41 @@
         <v>72500</v>
       </c>
     </row>
+    <row r="1911">
+      <c r="A1911" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B1911" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C1911" t="inlineStr">
+        <is>
+          <t>5208</t>
+        </is>
+      </c>
+      <c r="D1911" t="inlineStr">
+        <is>
+          <t>EITA</t>
+        </is>
+      </c>
+      <c r="E1911" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F1911" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G1911" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="H1911" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="I1911" t="n">
+        <v>40000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5208.xlsx
+++ b/data/5208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1911"/>
+  <dimension ref="A1:I1912"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67705,6 +67705,41 @@
         <v>40000</v>
       </c>
     </row>
+    <row r="1912">
+      <c r="A1912" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B1912" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C1912" t="inlineStr">
+        <is>
+          <t>5208</t>
+        </is>
+      </c>
+      <c r="D1912" t="inlineStr">
+        <is>
+          <t>EITA</t>
+        </is>
+      </c>
+      <c r="E1912" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F1912" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G1912" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H1912" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="I1912" t="n">
+        <v>97000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5208.xlsx
+++ b/data/5208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1912"/>
+  <dimension ref="A1:I1913"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67740,6 +67740,41 @@
         <v>97000</v>
       </c>
     </row>
+    <row r="1913">
+      <c r="A1913" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B1913" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C1913" t="inlineStr">
+        <is>
+          <t>5208</t>
+        </is>
+      </c>
+      <c r="D1913" t="inlineStr">
+        <is>
+          <t>EITA</t>
+        </is>
+      </c>
+      <c r="E1913" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="F1913" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G1913" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H1913" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="I1913" t="n">
+        <v>55000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5208.xlsx
+++ b/data/5208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1913"/>
+  <dimension ref="A1:I1914"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67775,6 +67775,41 @@
         <v>55000</v>
       </c>
     </row>
+    <row r="1914">
+      <c r="A1914" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B1914" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C1914" t="inlineStr">
+        <is>
+          <t>5208</t>
+        </is>
+      </c>
+      <c r="D1914" t="inlineStr">
+        <is>
+          <t>EITA</t>
+        </is>
+      </c>
+      <c r="E1914" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F1914" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G1914" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="H1914" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="I1914" t="n">
+        <v>108000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5208.xlsx
+++ b/data/5208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1914"/>
+  <dimension ref="A1:I1915"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67810,6 +67810,41 @@
         <v>108000</v>
       </c>
     </row>
+    <row r="1915">
+      <c r="A1915" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B1915" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C1915" t="inlineStr">
+        <is>
+          <t>5208</t>
+        </is>
+      </c>
+      <c r="D1915" t="inlineStr">
+        <is>
+          <t>EITA</t>
+        </is>
+      </c>
+      <c r="E1915" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F1915" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G1915" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H1915" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="I1915" t="n">
+        <v>55800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5208.xlsx
+++ b/data/5208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1915"/>
+  <dimension ref="A1:I1916"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67845,6 +67845,41 @@
         <v>55800</v>
       </c>
     </row>
+    <row r="1916">
+      <c r="A1916" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B1916" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C1916" t="inlineStr">
+        <is>
+          <t>5208</t>
+        </is>
+      </c>
+      <c r="D1916" t="inlineStr">
+        <is>
+          <t>EITA</t>
+        </is>
+      </c>
+      <c r="E1916" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F1916" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="G1916" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H1916" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I1916" t="n">
+        <v>27900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5208.xlsx
+++ b/data/5208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1916"/>
+  <dimension ref="A1:I1917"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67880,6 +67880,41 @@
         <v>27900</v>
       </c>
     </row>
+    <row r="1917">
+      <c r="A1917" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B1917" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C1917" t="inlineStr">
+        <is>
+          <t>5208</t>
+        </is>
+      </c>
+      <c r="D1917" t="inlineStr">
+        <is>
+          <t>EITA</t>
+        </is>
+      </c>
+      <c r="E1917" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="F1917" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="G1917" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="H1917" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="I1917" t="n">
+        <v>26500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5208.xlsx
+++ b/data/5208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1917"/>
+  <dimension ref="A1:I1919"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67915,6 +67915,76 @@
         <v>26500</v>
       </c>
     </row>
+    <row r="1918">
+      <c r="A1918" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B1918" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C1918" t="inlineStr">
+        <is>
+          <t>5208</t>
+        </is>
+      </c>
+      <c r="D1918" t="inlineStr">
+        <is>
+          <t>EITA</t>
+        </is>
+      </c>
+      <c r="E1918" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="F1918" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="G1918" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="H1918" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="I1918" t="n">
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="1919">
+      <c r="A1919" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B1919" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C1919" t="inlineStr">
+        <is>
+          <t>5208</t>
+        </is>
+      </c>
+      <c r="D1919" t="inlineStr">
+        <is>
+          <t>EITA</t>
+        </is>
+      </c>
+      <c r="E1919" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F1919" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="G1919" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H1919" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I1919" t="n">
+        <v>134400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5208.xlsx
+++ b/data/5208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1919"/>
+  <dimension ref="A1:I1920"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67985,6 +67985,41 @@
         <v>134400</v>
       </c>
     </row>
+    <row r="1920">
+      <c r="A1920" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B1920" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C1920" t="inlineStr">
+        <is>
+          <t>5208</t>
+        </is>
+      </c>
+      <c r="D1920" t="inlineStr">
+        <is>
+          <t>EITA</t>
+        </is>
+      </c>
+      <c r="E1920" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="F1920" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G1920" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H1920" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="I1920" t="n">
+        <v>188300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5208.xlsx
+++ b/data/5208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1920"/>
+  <dimension ref="A1:I1923"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68020,6 +68020,111 @@
         <v>188300</v>
       </c>
     </row>
+    <row r="1921">
+      <c r="A1921" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B1921" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C1921" t="inlineStr">
+        <is>
+          <t>5208</t>
+        </is>
+      </c>
+      <c r="D1921" t="inlineStr">
+        <is>
+          <t>EITA</t>
+        </is>
+      </c>
+      <c r="E1921" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F1921" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G1921" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H1921" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I1921" t="n">
+        <v>269000</v>
+      </c>
+    </row>
+    <row r="1922">
+      <c r="A1922" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B1922" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C1922" t="inlineStr">
+        <is>
+          <t>5208</t>
+        </is>
+      </c>
+      <c r="D1922" t="inlineStr">
+        <is>
+          <t>EITA</t>
+        </is>
+      </c>
+      <c r="E1922" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="F1922" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="G1922" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H1922" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="I1922" t="n">
+        <v>127400</v>
+      </c>
+    </row>
+    <row r="1923">
+      <c r="A1923" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B1923" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C1923" t="inlineStr">
+        <is>
+          <t>5208</t>
+        </is>
+      </c>
+      <c r="D1923" t="inlineStr">
+        <is>
+          <t>EITA</t>
+        </is>
+      </c>
+      <c r="E1923" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F1923" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="G1923" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H1923" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="I1923" t="n">
+        <v>58100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5208.xlsx
+++ b/data/5208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1923"/>
+  <dimension ref="A1:I1924"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68125,6 +68125,41 @@
         <v>58100</v>
       </c>
     </row>
+    <row r="1924">
+      <c r="A1924" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B1924" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C1924" t="inlineStr">
+        <is>
+          <t>5208</t>
+        </is>
+      </c>
+      <c r="D1924" t="inlineStr">
+        <is>
+          <t>EITA</t>
+        </is>
+      </c>
+      <c r="E1924" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="F1924" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G1924" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="H1924" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="I1924" t="n">
+        <v>125300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5208.xlsx
+++ b/data/5208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1924"/>
+  <dimension ref="A1:I1925"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68160,6 +68160,41 @@
         <v>125300</v>
       </c>
     </row>
+    <row r="1925">
+      <c r="A1925" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B1925" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C1925" t="inlineStr">
+        <is>
+          <t>5208</t>
+        </is>
+      </c>
+      <c r="D1925" t="inlineStr">
+        <is>
+          <t>EITA</t>
+        </is>
+      </c>
+      <c r="E1925" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="F1925" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G1925" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H1925" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="I1925" t="n">
+        <v>58300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5208.xlsx
+++ b/data/5208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1925"/>
+  <dimension ref="A1:I1928"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68195,6 +68195,111 @@
         <v>58300</v>
       </c>
     </row>
+    <row r="1926">
+      <c r="A1926" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B1926" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C1926" t="inlineStr">
+        <is>
+          <t>5208</t>
+        </is>
+      </c>
+      <c r="D1926" t="inlineStr">
+        <is>
+          <t>EITA</t>
+        </is>
+      </c>
+      <c r="E1926" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="F1926" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="G1926" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="H1926" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="I1926" t="n">
+        <v>73300</v>
+      </c>
+    </row>
+    <row r="1927">
+      <c r="A1927" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B1927" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C1927" t="inlineStr">
+        <is>
+          <t>5208</t>
+        </is>
+      </c>
+      <c r="D1927" t="inlineStr">
+        <is>
+          <t>EITA</t>
+        </is>
+      </c>
+      <c r="E1927" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="F1927" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="G1927" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H1927" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="I1927" t="n">
+        <v>77400</v>
+      </c>
+    </row>
+    <row r="1928">
+      <c r="A1928" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B1928" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C1928" t="inlineStr">
+        <is>
+          <t>5208</t>
+        </is>
+      </c>
+      <c r="D1928" t="inlineStr">
+        <is>
+          <t>EITA</t>
+        </is>
+      </c>
+      <c r="E1928" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="F1928" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="G1928" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="H1928" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I1928" t="n">
+        <v>34400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
